--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F69E04-D358-0345-85CA-EC6D9461FEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4454C-E655-884B-A71E-FE54E421823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>DALAL KANTILAL &amp; CO.</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
   <si>
     <t>ops@dalalkantilal.in</t>
   </si>
   <si>
-    <t>DALAL KANTILAL &amp; CO.</t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>pvcommods@gmail.com</t>
+  </si>
+  <si>
+    <t>RAGHUNATH ( AGENCIES ) PVT. LTD.</t>
+  </si>
+  <si>
+    <t>raghunathrajkot@gmail.com</t>
+  </si>
+  <si>
+    <t>TARU TRADE ASSOCIATE </t>
+  </si>
+  <si>
+    <t>tarutradeasso@gmail.com</t>
+  </si>
+  <si>
+    <t>GOBIND</t>
+  </si>
+  <si>
+    <t>AAVISHKAR</t>
+  </si>
+  <si>
+    <t>merchant.jignesh@yahoo.com</t>
+  </si>
+  <si>
+    <t>brokerbrothers1974@gmail.com</t>
+  </si>
+  <si>
+    <t>ASHWINI</t>
+  </si>
+  <si>
+    <t>PV COMMODITIES</t>
+  </si>
+  <si>
+    <t>S KUMAR</t>
+  </si>
+  <si>
+    <t>highseas@skumargroup.net</t>
+  </si>
+  <si>
+    <t>HARDIK</t>
+  </si>
+  <si>
+    <t>NITESH RASTOGI</t>
+  </si>
+  <si>
+    <t>RAKESH RASTOGI</t>
+  </si>
+  <si>
+    <t>MRIDUL</t>
+  </si>
+  <si>
+    <t>mridulagarwal8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +145,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,44 +487,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>9601078189</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9444019111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>9909041092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>7049700898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>9414119330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>9428869589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>9754220060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>7436097899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>9925004991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>9193533666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>9830015653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>9007853935</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AED8474F-48AA-8745-A481-EFCDAE77748E}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{D902EA4A-A01C-B642-ADF8-2A7CAB4CBE5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4454C-E655-884B-A71E-FE54E421823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86066445-4D2C-1C4E-8948-87324F0832AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -105,13 +105,46 @@
   </si>
   <si>
     <t>mridulagarwal8@gmail.com</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>120363379956291118</t>
+  </si>
+  <si>
+    <t>kantilal.ratilal@gmail.com</t>
+  </si>
+  <si>
+    <t>KANTILAL RATILAL</t>
+  </si>
+  <si>
+    <t>919131415757-1626342704</t>
+  </si>
+  <si>
+    <t>919830185667-1595249261</t>
+  </si>
+  <si>
+    <t>919830185667-1603367864</t>
+  </si>
+  <si>
+    <t>120363045321075189</t>
+  </si>
+  <si>
+    <t>919444019111-1543503115</t>
+  </si>
+  <si>
+    <t>919830185667-1592811558</t>
+  </si>
+  <si>
+    <t>919925004991-1525774179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +156,19 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF747474"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF747474"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,9 +195,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,9 +547,10 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -510,8 +560,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -521,8 +574,11 @@
       <c r="C2">
         <v>9601078189</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -532,8 +588,11 @@
       <c r="C3">
         <v>9444019111</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -543,8 +602,9 @@
       <c r="C4">
         <v>9909041092</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -554,16 +614,20 @@
       <c r="C5">
         <v>7049700898</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
         <v>9414119330</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -573,8 +637,11 @@
       <c r="C7">
         <v>9428869589</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -584,8 +651,12 @@
       <c r="C8">
         <v>9754220060</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -595,32 +666,41 @@
       <c r="C9">
         <v>7436097899</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="C10">
         <v>9925004991</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="C11">
         <v>9193533666</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="C12">
         <v>9830015653</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -630,6 +710,24 @@
       <c r="C13">
         <v>9007853935</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>9529563809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86066445-4D2C-1C4E-8948-87324F0832AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4DFCF-BAEE-F24A-8B3B-0CE6F3626EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>919925004991-1525774179</t>
+  </si>
+  <si>
+    <t>GGN INTL</t>
+  </si>
+  <si>
+    <t>SRI RAM AGRI</t>
+  </si>
+  <si>
+    <t>contact@ggninternational.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shreeramjodhpur1960@gmail.com </t>
+  </si>
+  <si>
+    <t>GTA OILS</t>
+  </si>
+  <si>
+    <t>info@gtaoils.com</t>
+  </si>
+  <si>
+    <t>NEERAJ</t>
+  </si>
+  <si>
+    <t>S SHARMA</t>
   </si>
 </sst>
 </file>
@@ -536,16 +560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -727,11 +751,59 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>9109121037</v>
+      </c>
       <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>9613333394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>9588946841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>9830790079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>9831188034</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{D902EA4A-A01C-B642-ADF8-2A7CAB4CBE5C}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{A9A97A45-9EB7-B14E-805F-162D81A401CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4DFCF-BAEE-F24A-8B3B-0CE6F3626EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82215D60-F9ED-0C48-BFA7-500BC27D4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -158,10 +158,130 @@
     <t>info@gtaoils.com</t>
   </si>
   <si>
-    <t>NEERAJ</t>
-  </si>
-  <si>
     <t>S SHARMA</t>
+  </si>
+  <si>
+    <t>EMAMI</t>
+  </si>
+  <si>
+    <t>RAJENDRA RASTOGI</t>
+  </si>
+  <si>
+    <t>avijit.roy@emamiagrotech.com</t>
+  </si>
+  <si>
+    <t>BABALI</t>
+  </si>
+  <si>
+    <t>MUKESH AGARWAL</t>
+  </si>
+  <si>
+    <t>NEERAJ KHANDELWAL</t>
+  </si>
+  <si>
+    <t>GAURAV GOVIND</t>
+  </si>
+  <si>
+    <t>MAHENDRA KEJERIWAL</t>
+  </si>
+  <si>
+    <t>RAMESH SHARMA</t>
+  </si>
+  <si>
+    <t>SHREE SHYAM ENT</t>
+  </si>
+  <si>
+    <t>NAGARMALJI</t>
+  </si>
+  <si>
+    <t>RITESH AGARWAL</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>9830047347,8820874966</t>
+  </si>
+  <si>
+    <t>PRAMOD AGARWAL</t>
+  </si>
+  <si>
+    <t>PRAKASH BOHRA</t>
+  </si>
+  <si>
+    <t>nitieshraastogi@gmail.com</t>
+  </si>
+  <si>
+    <t>r_rustagi01@yahoo.com</t>
+  </si>
+  <si>
+    <t>nkhandelwal138@gmail.com</t>
+  </si>
+  <si>
+    <t>r9830064921@gmail.com</t>
+  </si>
+  <si>
+    <t>mukesh.agarwal16@yahoo.com</t>
+  </si>
+  <si>
+    <t>gouravkumarkhandelwal@gmail.com</t>
+  </si>
+  <si>
+    <t>mkkejariwal@gmail.com</t>
+  </si>
+  <si>
+    <t>MLAGARWAL58@yahoo.com</t>
+  </si>
+  <si>
+    <t>riteshdiamond.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>bohra.prakas@gmail.com</t>
+  </si>
+  <si>
+    <t>918820184568-1607415237</t>
+  </si>
+  <si>
+    <t>120363297125069151</t>
+  </si>
+  <si>
+    <t>918697449048-1598700288</t>
+  </si>
+  <si>
+    <t>918697449048-1535362442</t>
+  </si>
+  <si>
+    <t>919330196080-1542960339</t>
+  </si>
+  <si>
+    <t>120363023942669875</t>
+  </si>
+  <si>
+    <t>120363199870464443</t>
+  </si>
+  <si>
+    <t>918697449048-1555503138</t>
+  </si>
+  <si>
+    <t>120363025153118377</t>
+  </si>
+  <si>
+    <t>918829032135-1610699614</t>
+  </si>
+  <si>
+    <t>918697449048-1576845830</t>
+  </si>
+  <si>
+    <t>919830270091-1584628605</t>
+  </si>
+  <si>
+    <t>120363144220511102</t>
+  </si>
+  <si>
+    <t>120363198406327896</t>
+  </si>
+  <si>
+    <t>120363376785577782</t>
   </si>
 </sst>
 </file>
@@ -219,12 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,17 +681,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,7 +716,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>9601078189</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -609,7 +730,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>9444019111</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -623,10 +744,13 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>9909041092</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -635,21 +759,24 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>7049700898</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>9414119330</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -658,7 +785,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>9428869589</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -672,7 +799,7 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>9754220060</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -687,7 +814,7 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>7436097899</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -699,7 +826,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>9925004991</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -710,19 +837,29 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3">
         <v>9193533666</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3">
         <v>9830015653</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -731,7 +868,7 @@
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>9007853935</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -746,21 +883,23 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>9529563809</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>9109121037</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -769,35 +908,203 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>9613333394</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>9588946841</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9830790079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="C18">
-        <v>9830790079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" s="3">
+        <v>9831188034</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="C19">
-        <v>9831188034</v>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9073952425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8240154242</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9830323637</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9830270091</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9051973999</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9830021902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9830185838</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9830298603</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9830257207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9830146542</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9331206567</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3">
+        <v>9831201892</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82215D60-F9ED-0C48-BFA7-500BC27D4616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA42F17-E3DC-4B49-87C0-1E9888DAD626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -282,6 +282,21 @@
   </si>
   <si>
     <t>120363376785577782</t>
+  </si>
+  <si>
+    <t>120363030617146643</t>
+  </si>
+  <si>
+    <t>919830185727-1603775817</t>
+  </si>
+  <si>
+    <t>919830185727-1603776007</t>
+  </si>
+  <si>
+    <t>919831290505-1555502266</t>
+  </si>
+  <si>
+    <t>919830790079-1582291609</t>
   </si>
 </sst>
 </file>
@@ -683,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +708,7 @@
     <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,7 +892,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -886,6 +902,10 @@
       <c r="C14" s="3">
         <v>9529563809</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -939,6 +959,9 @@
       <c r="C18" s="3">
         <v>9830790079</v>
       </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1027,6 +1050,9 @@
       <c r="C25" s="3">
         <v>9830021902</v>
       </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1061,6 +1087,9 @@
       <c r="C28" s="3">
         <v>9830257207</v>
       </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1094,7 +1123,9 @@
       <c r="C31" s="3">
         <v>9331206567</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA42F17-E3DC-4B49-87C0-1E9888DAD626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A331B1B-7987-3445-9EB3-3C1C4B74F72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>919830790079-1582291609</t>
+  </si>
+  <si>
+    <t>120363044714812200</t>
+  </si>
+  <si>
+    <t>919831201892-1575113655</t>
   </si>
 </sst>
 </file>
@@ -698,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,8 +1068,9 @@
         <v>9830185838</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,6 +1143,9 @@
       </c>
       <c r="C32" s="3">
         <v>9831201892</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A331B1B-7987-3445-9EB3-3C1C4B74F72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A96825-370B-554E-91EA-243F8F31DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FFAC459D-5F47-A14E-A33F-C5E81D5534D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>DALAL KANTILAL &amp; CO.</t>
   </si>
@@ -303,6 +303,33 @@
   </si>
   <si>
     <t>919831201892-1575113655</t>
+  </si>
+  <si>
+    <t>YOGESH AGARWAL</t>
+  </si>
+  <si>
+    <t>919804136662-1564986846</t>
+  </si>
+  <si>
+    <t>agarwalyogesh65@gmail.com</t>
+  </si>
+  <si>
+    <t>918697449048-1589451731</t>
+  </si>
+  <si>
+    <t>NAROTTAMJI</t>
+  </si>
+  <si>
+    <t>sstrader09@yahoo.com</t>
+  </si>
+  <si>
+    <t>RAJESH JHAWAR</t>
+  </si>
+  <si>
+    <t>120363169926153380</t>
+  </si>
+  <si>
+    <t>rajeshjhawar.rj@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -702,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621E53FA-08B5-9D48-A364-3F02D101E2C4}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,6 +1175,48 @@
         <v>88</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9804136662</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9903874799</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9830710761</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{D902EA4A-A01C-B642-ADF8-2A7CAB4CBE5C}"/>
